--- a/Тестовое задание модуль 9.xlsx
+++ b/Тестовое задание модуль 9.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="172">
   <si>
     <t>passed</t>
   </si>
@@ -786,12 +786,18 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>пройден</t>
+  </si>
+  <si>
+    <t>Пройден</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -978,6 +984,12 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1093,7 +1105,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1202,6 +1214,54 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1232,47 +1292,8 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1667,17 +1688,17 @@
   <sheetPr codeName="Worksheet____5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Z81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane xSplit="11" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="39.28515625" customWidth="1"/>
     <col min="5" max="5" width="49.28515625" customWidth="1"/>
@@ -1699,7 +1720,7 @@
     <col min="21" max="21" width="2.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" ht="56.25" customHeight="1">
       <c r="A1" s="12"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1744,7 +1765,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" ht="63.75" customHeight="1">
       <c r="A2" s="12"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -1758,9 +1779,8 @@
         <v>14</v>
       </c>
       <c r="K2" s="11"/>
-      <c r="L2" s="17">
-        <f>COUNTIF(L$26:L$62,"passed")</f>
-        <v>0</v>
+      <c r="L2" s="51">
+        <v>43648</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="17">
@@ -1789,7 +1809,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="6" customHeight="1">
+    <row r="3" spans="1:26" ht="56.25" customHeight="1">
       <c r="A3" s="12"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1887,43 +1907,43 @@
     </row>
     <row r="6" spans="1:26" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="43" t="s">
+      <c r="F6" s="54"/>
+      <c r="G6" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="46"/>
+      <c r="J6" s="62"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="45" t="s">
+      <c r="L6" s="61" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="45" t="s">
+      <c r="N6" s="61" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="45"/>
+      <c r="P6" s="61"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="45"/>
+      <c r="R6" s="61"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="45"/>
+      <c r="T6" s="61"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1933,29 +1953,29 @@
     </row>
     <row r="7" spans="1:26" ht="39.75" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="55"/>
       <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="47"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="45"/>
+      <c r="L7" s="61"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="45"/>
+      <c r="N7" s="61"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="45"/>
+      <c r="P7" s="61"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="45"/>
+      <c r="R7" s="61"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="45"/>
+      <c r="T7" s="61"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1965,27 +1985,33 @@
     </row>
     <row r="8" spans="1:26" ht="92.25" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="54" t="s">
+      <c r="B8" s="64">
+        <v>1</v>
+      </c>
+      <c r="C8" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="G8" s="48"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="40"/>
       <c r="J8" s="37"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="36"/>
+      <c r="L8" s="52" t="s">
+        <v>170</v>
+      </c>
       <c r="M8" s="11"/>
-      <c r="N8" s="36"/>
+      <c r="N8" s="53" t="s">
+        <v>171</v>
+      </c>
       <c r="O8" s="11"/>
       <c r="P8" s="36"/>
       <c r="Q8" s="11"/>
@@ -2001,8 +2027,10 @@
     </row>
     <row r="9" spans="1:26" ht="103.5" customHeight="1">
       <c r="A9" s="12"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="58"/>
+      <c r="B9" s="64">
+        <v>2</v>
+      </c>
+      <c r="C9" s="47"/>
       <c r="D9" s="3" t="s">
         <v>128</v>
       </c>
@@ -2012,14 +2040,18 @@
       <c r="F9" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G9" s="48"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
       <c r="J9" s="37"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="36"/>
+      <c r="L9" s="52" t="s">
+        <v>170</v>
+      </c>
       <c r="M9" s="11"/>
-      <c r="N9" s="36"/>
+      <c r="N9" s="53" t="s">
+        <v>171</v>
+      </c>
       <c r="O9" s="11"/>
       <c r="P9" s="36"/>
       <c r="Q9" s="11"/>
@@ -2035,8 +2067,10 @@
     </row>
     <row r="10" spans="1:26" ht="102.75" customHeight="1">
       <c r="A10" s="12"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="55"/>
+      <c r="B10" s="64">
+        <v>3</v>
+      </c>
+      <c r="C10" s="44"/>
       <c r="D10" s="3" t="s">
         <v>130</v>
       </c>
@@ -2046,14 +2080,18 @@
       <c r="F10" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G10" s="48"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="51"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="40"/>
       <c r="J10" s="37"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="36"/>
+      <c r="L10" s="52" t="s">
+        <v>170</v>
+      </c>
       <c r="M10" s="11"/>
-      <c r="N10" s="36"/>
+      <c r="N10" s="53" t="s">
+        <v>171</v>
+      </c>
       <c r="O10" s="11"/>
       <c r="P10" s="36"/>
       <c r="Q10" s="11"/>
@@ -2069,8 +2107,10 @@
     </row>
     <row r="11" spans="1:26" ht="106.5" customHeight="1">
       <c r="A11" s="12"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="55"/>
+      <c r="B11" s="64">
+        <v>4</v>
+      </c>
+      <c r="C11" s="44"/>
       <c r="D11" s="3" t="s">
         <v>133</v>
       </c>
@@ -2080,14 +2120,18 @@
       <c r="F11" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="51"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="40"/>
       <c r="J11" s="37"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="36"/>
+      <c r="L11" s="52" t="s">
+        <v>170</v>
+      </c>
       <c r="M11" s="11"/>
-      <c r="N11" s="36"/>
+      <c r="N11" s="53" t="s">
+        <v>171</v>
+      </c>
       <c r="O11" s="11"/>
       <c r="P11" s="36"/>
       <c r="Q11" s="11"/>
@@ -2103,8 +2147,10 @@
     </row>
     <row r="12" spans="1:26" ht="107.25" customHeight="1">
       <c r="A12" s="12"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="55"/>
+      <c r="B12" s="64">
+        <v>5</v>
+      </c>
+      <c r="C12" s="44"/>
       <c r="D12" s="3" t="s">
         <v>136</v>
       </c>
@@ -2114,14 +2160,18 @@
       <c r="F12" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="G12" s="48"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="51"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="40"/>
       <c r="J12" s="37"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="36"/>
+      <c r="L12" s="52" t="s">
+        <v>170</v>
+      </c>
       <c r="M12" s="11"/>
-      <c r="N12" s="36"/>
+      <c r="N12" s="53" t="s">
+        <v>171</v>
+      </c>
       <c r="O12" s="11"/>
       <c r="P12" s="36"/>
       <c r="Q12" s="11"/>
@@ -2137,8 +2187,10 @@
     </row>
     <row r="13" spans="1:26" ht="96.75" customHeight="1">
       <c r="A13" s="12"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="55"/>
+      <c r="B13" s="64">
+        <v>6</v>
+      </c>
+      <c r="C13" s="44"/>
       <c r="D13" s="3" t="s">
         <v>139</v>
       </c>
@@ -2148,14 +2200,18 @@
       <c r="F13" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G13" s="48"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="51"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="40"/>
       <c r="J13" s="37"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="36"/>
+      <c r="L13" s="52" t="s">
+        <v>170</v>
+      </c>
       <c r="M13" s="11"/>
-      <c r="N13" s="36"/>
+      <c r="N13" s="53" t="s">
+        <v>171</v>
+      </c>
       <c r="O13" s="11"/>
       <c r="P13" s="36"/>
       <c r="Q13" s="11"/>
@@ -2171,8 +2227,10 @@
     </row>
     <row r="14" spans="1:26" ht="96.75" customHeight="1">
       <c r="A14" s="12"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="55"/>
+      <c r="B14" s="64">
+        <v>7</v>
+      </c>
+      <c r="C14" s="44"/>
       <c r="D14" s="3" t="s">
         <v>142</v>
       </c>
@@ -2182,14 +2240,18 @@
       <c r="F14" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G14" s="48"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="40"/>
       <c r="J14" s="37"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="36"/>
+      <c r="L14" s="52" t="s">
+        <v>170</v>
+      </c>
       <c r="M14" s="11"/>
-      <c r="N14" s="36"/>
+      <c r="N14" s="53" t="s">
+        <v>171</v>
+      </c>
       <c r="O14" s="11"/>
       <c r="P14" s="36"/>
       <c r="Q14" s="11"/>
@@ -2205,8 +2267,10 @@
     </row>
     <row r="15" spans="1:26" ht="147.75" customHeight="1">
       <c r="A15" s="12"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="55" t="s">
+      <c r="B15" s="64">
+        <v>8</v>
+      </c>
+      <c r="C15" s="44" t="s">
         <v>126</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -2218,14 +2282,18 @@
       <c r="F15" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="48"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="51"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="40"/>
       <c r="J15" s="37"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="36"/>
+      <c r="L15" s="52" t="s">
+        <v>170</v>
+      </c>
       <c r="M15" s="11"/>
-      <c r="N15" s="36"/>
+      <c r="N15" s="53" t="s">
+        <v>171</v>
+      </c>
       <c r="O15" s="11"/>
       <c r="P15" s="36"/>
       <c r="Q15" s="11"/>
@@ -2241,8 +2309,10 @@
     </row>
     <row r="16" spans="1:26" ht="147.75" customHeight="1">
       <c r="A16" s="12"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="55"/>
+      <c r="B16" s="64">
+        <v>9</v>
+      </c>
+      <c r="C16" s="44"/>
       <c r="D16" s="3" t="s">
         <v>146</v>
       </c>
@@ -2252,14 +2322,16 @@
       <c r="F16" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G16" s="48"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="51"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="40"/>
       <c r="J16" s="37"/>
       <c r="K16" s="9"/>
       <c r="L16" s="36"/>
       <c r="M16" s="11"/>
-      <c r="N16" s="36"/>
+      <c r="N16" s="53" t="s">
+        <v>171</v>
+      </c>
       <c r="O16" s="11"/>
       <c r="P16" s="36"/>
       <c r="Q16" s="11"/>
@@ -2275,8 +2347,10 @@
     </row>
     <row r="17" spans="1:26" ht="147.75" customHeight="1">
       <c r="A17" s="12"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="55"/>
+      <c r="B17" s="64">
+        <v>10</v>
+      </c>
+      <c r="C17" s="44"/>
       <c r="D17" s="3" t="s">
         <v>148</v>
       </c>
@@ -2286,14 +2360,18 @@
       <c r="F17" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G17" s="48"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="51"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="37"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="36"/>
+      <c r="L17" s="52" t="s">
+        <v>170</v>
+      </c>
       <c r="M17" s="11"/>
-      <c r="N17" s="36"/>
+      <c r="N17" s="53" t="s">
+        <v>171</v>
+      </c>
       <c r="O17" s="11"/>
       <c r="P17" s="36"/>
       <c r="Q17" s="11"/>
@@ -2309,8 +2387,10 @@
     </row>
     <row r="18" spans="1:26" ht="147.75" customHeight="1">
       <c r="A18" s="12"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="55"/>
+      <c r="B18" s="64">
+        <v>11</v>
+      </c>
+      <c r="C18" s="44"/>
       <c r="D18" s="3" t="s">
         <v>139</v>
       </c>
@@ -2320,14 +2400,18 @@
       <c r="F18" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G18" s="48"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="51"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="40"/>
       <c r="J18" s="37"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="36"/>
+      <c r="L18" s="52" t="s">
+        <v>170</v>
+      </c>
       <c r="M18" s="11"/>
-      <c r="N18" s="36"/>
+      <c r="N18" s="53" t="s">
+        <v>171</v>
+      </c>
       <c r="O18" s="11"/>
       <c r="P18" s="36"/>
       <c r="Q18" s="11"/>
@@ -2343,8 +2427,10 @@
     </row>
     <row r="19" spans="1:26" ht="147.75" customHeight="1">
       <c r="A19" s="12"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="55"/>
+      <c r="B19" s="64">
+        <v>12</v>
+      </c>
+      <c r="C19" s="44"/>
       <c r="D19" s="3" t="s">
         <v>150</v>
       </c>
@@ -2354,14 +2440,18 @@
       <c r="F19" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="51"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="40"/>
       <c r="J19" s="37"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="36"/>
+      <c r="L19" s="52" t="s">
+        <v>170</v>
+      </c>
       <c r="M19" s="11"/>
-      <c r="N19" s="36"/>
+      <c r="N19" s="53" t="s">
+        <v>171</v>
+      </c>
       <c r="O19" s="11"/>
       <c r="P19" s="36"/>
       <c r="Q19" s="11"/>
@@ -2377,8 +2467,10 @@
     </row>
     <row r="20" spans="1:26" ht="147.75" customHeight="1">
       <c r="A20" s="12"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="55"/>
+      <c r="B20" s="64">
+        <v>13</v>
+      </c>
+      <c r="C20" s="44"/>
       <c r="D20" s="3" t="s">
         <v>153</v>
       </c>
@@ -2388,14 +2480,18 @@
       <c r="F20" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="51"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="40"/>
       <c r="J20" s="37"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="36"/>
+      <c r="L20" s="52" t="s">
+        <v>170</v>
+      </c>
       <c r="M20" s="11"/>
-      <c r="N20" s="36"/>
+      <c r="N20" s="53" t="s">
+        <v>171</v>
+      </c>
       <c r="O20" s="11"/>
       <c r="P20" s="36"/>
       <c r="Q20" s="11"/>
@@ -2411,8 +2507,10 @@
     </row>
     <row r="21" spans="1:26" ht="147.75" customHeight="1">
       <c r="A21" s="12"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="55"/>
+      <c r="B21" s="64">
+        <v>14</v>
+      </c>
+      <c r="C21" s="44"/>
       <c r="D21" s="3" t="s">
         <v>156</v>
       </c>
@@ -2422,14 +2520,18 @@
       <c r="F21" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="51"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="40"/>
       <c r="J21" s="37"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="36"/>
+      <c r="L21" s="52" t="s">
+        <v>170</v>
+      </c>
       <c r="M21" s="11"/>
-      <c r="N21" s="36"/>
+      <c r="N21" s="53" t="s">
+        <v>171</v>
+      </c>
       <c r="O21" s="11"/>
       <c r="P21" s="36"/>
       <c r="Q21" s="11"/>
@@ -2445,8 +2547,10 @@
     </row>
     <row r="22" spans="1:26" ht="147.75" customHeight="1">
       <c r="A22" s="12"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="55"/>
+      <c r="B22" s="64">
+        <v>15</v>
+      </c>
+      <c r="C22" s="44"/>
       <c r="D22" s="3" t="s">
         <v>159</v>
       </c>
@@ -2456,14 +2560,16 @@
       <c r="F22" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="G22" s="48"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="51"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="40"/>
       <c r="J22" s="37"/>
       <c r="K22" s="9"/>
       <c r="L22" s="36"/>
       <c r="M22" s="11"/>
-      <c r="N22" s="36"/>
+      <c r="N22" s="53" t="s">
+        <v>171</v>
+      </c>
       <c r="O22" s="11"/>
       <c r="P22" s="36"/>
       <c r="Q22" s="11"/>
@@ -2479,8 +2585,10 @@
     </row>
     <row r="23" spans="1:26" ht="147.75" customHeight="1">
       <c r="A23" s="12"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="55"/>
+      <c r="B23" s="64">
+        <v>16</v>
+      </c>
+      <c r="C23" s="44"/>
       <c r="D23" s="3" t="s">
         <v>162</v>
       </c>
@@ -2490,14 +2598,16 @@
       <c r="F23" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G23" s="48"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="51"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="40"/>
       <c r="J23" s="37"/>
       <c r="K23" s="9"/>
       <c r="L23" s="36"/>
       <c r="M23" s="11"/>
-      <c r="N23" s="36"/>
+      <c r="N23" s="53" t="s">
+        <v>171</v>
+      </c>
       <c r="O23" s="11"/>
       <c r="P23" s="36"/>
       <c r="Q23" s="11"/>
@@ -2513,8 +2623,10 @@
     </row>
     <row r="24" spans="1:26" ht="147.75" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="55"/>
+      <c r="B24" s="64">
+        <v>17</v>
+      </c>
+      <c r="C24" s="44"/>
       <c r="D24" s="3" t="s">
         <v>165</v>
       </c>
@@ -2524,14 +2636,16 @@
       <c r="F24" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G24" s="48"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="51"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="40"/>
       <c r="J24" s="37"/>
       <c r="K24" s="9"/>
       <c r="L24" s="36"/>
       <c r="M24" s="11"/>
-      <c r="N24" s="36"/>
+      <c r="N24" s="53" t="s">
+        <v>171</v>
+      </c>
       <c r="O24" s="11"/>
       <c r="P24" s="36"/>
       <c r="Q24" s="11"/>
@@ -2547,21 +2661,25 @@
     </row>
     <row r="25" spans="1:26" ht="29.25" customHeight="1">
       <c r="A25" s="12"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="61" t="s">
+      <c r="B25" s="64">
+        <v>18</v>
+      </c>
+      <c r="C25" s="50" t="s">
         <v>168</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="51"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="40"/>
       <c r="J25" s="37"/>
       <c r="K25" s="9"/>
       <c r="L25" s="36"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="36"/>
+      <c r="N25" s="53" t="s">
+        <v>171</v>
+      </c>
       <c r="O25" s="11"/>
       <c r="P25" s="36"/>
       <c r="Q25" s="11"/>
@@ -2577,7 +2695,9 @@
     </row>
     <row r="26" spans="1:26" ht="167.25" customHeight="1">
       <c r="A26" s="12"/>
-      <c r="B26" s="3"/>
+      <c r="B26" s="64">
+        <v>19</v>
+      </c>
       <c r="C26" s="30" t="s">
         <v>24</v>
       </c>
@@ -2585,7 +2705,7 @@
       <c r="E26" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="52" t="s">
+      <c r="F26" s="41" t="s">
         <v>54</v>
       </c>
       <c r="G26" s="20"/>
@@ -2611,8 +2731,8 @@
     </row>
     <row r="27" spans="1:26" ht="111" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="3">
-        <v>2</v>
+      <c r="B27" s="64">
+        <v>20</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
@@ -2647,8 +2767,8 @@
     </row>
     <row r="28" spans="1:26" ht="123.95" customHeight="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="3">
-        <v>3</v>
+      <c r="B28" s="64">
+        <v>21</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
@@ -2683,8 +2803,8 @@
     </row>
     <row r="29" spans="1:26" ht="159.75" customHeight="1">
       <c r="A29" s="12"/>
-      <c r="B29" s="3">
-        <v>4</v>
+      <c r="B29" s="64">
+        <v>22</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
@@ -2720,7 +2840,7 @@
     <row r="30" spans="1:26" ht="123.95" customHeight="1">
       <c r="A30" s="12"/>
       <c r="B30" s="3">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
@@ -2756,7 +2876,7 @@
     <row r="31" spans="1:26" ht="123.95" customHeight="1">
       <c r="A31" s="12"/>
       <c r="B31" s="3">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
@@ -2792,7 +2912,7 @@
     <row r="32" spans="1:26" ht="63" customHeight="1">
       <c r="A32" s="12"/>
       <c r="B32" s="3">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="3" t="s">
@@ -2828,7 +2948,7 @@
     <row r="33" spans="1:26" ht="63" customHeight="1">
       <c r="A33" s="12"/>
       <c r="B33" s="3">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="3" t="s">
@@ -2864,7 +2984,7 @@
     <row r="34" spans="1:26" ht="63" customHeight="1">
       <c r="A34" s="12"/>
       <c r="B34" s="3">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C34" s="30"/>
       <c r="D34" s="3" t="s">
@@ -2900,7 +3020,7 @@
     <row r="35" spans="1:26" ht="195.75" customHeight="1">
       <c r="A35" s="12"/>
       <c r="B35" s="3">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C35" s="30" t="s">
         <v>76</v>
@@ -2938,7 +3058,7 @@
     <row r="36" spans="1:26" ht="259.5" customHeight="1">
       <c r="A36" s="12"/>
       <c r="B36" s="3">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3" t="s">
@@ -2974,7 +3094,7 @@
     <row r="37" spans="1:26" ht="198" customHeight="1">
       <c r="A37" s="12"/>
       <c r="B37" s="3">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="3" t="s">
@@ -3010,7 +3130,7 @@
     <row r="38" spans="1:26" ht="108" customHeight="1">
       <c r="A38" s="12"/>
       <c r="B38" s="3">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3" t="s">
@@ -3046,7 +3166,7 @@
     <row r="39" spans="1:26" ht="195" customHeight="1">
       <c r="A39" s="12"/>
       <c r="B39" s="3">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3" t="s">
@@ -3082,7 +3202,7 @@
     <row r="40" spans="1:26" ht="201.75" customHeight="1">
       <c r="A40" s="12"/>
       <c r="B40" s="3">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C40" s="32" t="s">
         <v>44</v>
@@ -3120,7 +3240,7 @@
     <row r="41" spans="1:26" ht="178.5" customHeight="1">
       <c r="A41" s="12"/>
       <c r="B41" s="3">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
@@ -3156,7 +3276,7 @@
     <row r="42" spans="1:26" ht="255.75" customHeight="1">
       <c r="A42" s="12"/>
       <c r="B42" s="3">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3" t="s">
@@ -3191,7 +3311,9 @@
     </row>
     <row r="43" spans="1:26" ht="172.5" customHeight="1">
       <c r="A43" s="12"/>
-      <c r="B43" s="3"/>
+      <c r="B43" s="3">
+        <v>36</v>
+      </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
         <v>70</v>
@@ -3226,7 +3348,7 @@
     <row r="44" spans="1:26" ht="92.25" customHeight="1">
       <c r="A44" s="12"/>
       <c r="B44" s="3">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
@@ -3262,7 +3384,7 @@
     <row r="45" spans="1:26" ht="210" customHeight="1">
       <c r="A45" s="12"/>
       <c r="B45" s="3">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="4" t="s">
@@ -3298,7 +3420,7 @@
     <row r="46" spans="1:26" ht="131.25" customHeight="1">
       <c r="A46" s="12"/>
       <c r="B46" s="3">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="4" t="s">
@@ -3334,7 +3456,7 @@
     <row r="47" spans="1:26" ht="75.75" customHeight="1">
       <c r="A47" s="12"/>
       <c r="B47" s="3">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
@@ -3369,8 +3491,10 @@
     </row>
     <row r="48" spans="1:26" ht="75.75" customHeight="1">
       <c r="A48" s="12"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="59" t="s">
+      <c r="B48" s="3">
+        <v>41</v>
+      </c>
+      <c r="C48" s="48" t="s">
         <v>123</v>
       </c>
       <c r="D48" s="3"/>
@@ -3400,13 +3524,13 @@
     <row r="49" spans="1:26" ht="124.5" customHeight="1">
       <c r="A49" s="12"/>
       <c r="B49" s="3">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C49" s="35" t="s">
         <v>119</v>
       </c>
       <c r="D49" s="34"/>
-      <c r="E49" s="53" t="s">
+      <c r="E49" s="42" t="s">
         <v>85</v>
       </c>
       <c r="F49" s="3"/>
@@ -3434,7 +3558,7 @@
     <row r="50" spans="1:26" ht="73.5" customHeight="1">
       <c r="A50" s="12"/>
       <c r="B50" s="3">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3" t="s">
@@ -3470,7 +3594,7 @@
     <row r="51" spans="1:26" ht="75">
       <c r="A51" s="12"/>
       <c r="B51" s="3">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3" t="s">
@@ -3506,7 +3630,7 @@
     <row r="52" spans="1:26" ht="105">
       <c r="A52" s="12"/>
       <c r="B52" s="3">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3" t="s">
@@ -3542,7 +3666,7 @@
     <row r="53" spans="1:26" ht="85.5" customHeight="1">
       <c r="A53" s="12"/>
       <c r="B53" s="3">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3" t="s">
@@ -3578,7 +3702,7 @@
     <row r="54" spans="1:26" ht="146.25" customHeight="1">
       <c r="A54" s="12"/>
       <c r="B54" s="3">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
@@ -3614,7 +3738,7 @@
     <row r="55" spans="1:26" ht="94.5" customHeight="1">
       <c r="A55" s="12"/>
       <c r="B55" s="3">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
@@ -3650,7 +3774,7 @@
     <row r="56" spans="1:26" ht="243.75" customHeight="1">
       <c r="A56" s="12"/>
       <c r="B56" s="3">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3" t="s">
@@ -3686,7 +3810,7 @@
     <row r="57" spans="1:26" ht="101.25" customHeight="1">
       <c r="A57" s="12"/>
       <c r="B57" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3" t="s">
@@ -3722,7 +3846,7 @@
     <row r="58" spans="1:26" ht="108" customHeight="1">
       <c r="A58" s="12"/>
       <c r="B58" s="3">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3" t="s">
@@ -3758,7 +3882,7 @@
     <row r="59" spans="1:26" ht="143.25" customHeight="1">
       <c r="A59" s="12"/>
       <c r="B59" s="3">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3" t="s">
@@ -3794,7 +3918,7 @@
     <row r="60" spans="1:26" ht="179.25" customHeight="1">
       <c r="A60" s="12"/>
       <c r="B60" s="3">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3" t="s">
@@ -3830,7 +3954,7 @@
     <row r="61" spans="1:26" ht="223.5" customHeight="1">
       <c r="A61" s="12"/>
       <c r="B61" s="3">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3" t="s">
@@ -3865,9 +3989,7 @@
     </row>
     <row r="62" spans="1:26" ht="92.25" customHeight="1">
       <c r="A62" s="12"/>
-      <c r="B62" s="14">
-        <v>35</v>
-      </c>
+      <c r="B62" s="14"/>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
